--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C70C7D-8DCE-4368-99D8-21DAC2EAFC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509976F9-91CA-4C00-9672-A9F43C041074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="4380" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5232" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -75,6 +75,22 @@
   </si>
   <si>
     <t>houyi_sk3</t>
+  </si>
+  <si>
+    <t>技能配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Magnification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能倍率(万分比)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -399,111 +415,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
       <c r="B10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509976F9-91CA-4C00-9672-A9F43C041074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9708E18-0C1B-4DBF-A904-6A8AC0B1F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5232" yWindow="4476" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1776" yWindow="2652" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -483,6 +483,9 @@
       <c r="B5" t="s">
         <v>6</v>
       </c>
+      <c r="C5">
+        <v>1001</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -494,6 +497,9 @@
       <c r="B6" t="s">
         <v>7</v>
       </c>
+      <c r="C6">
+        <v>1002</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -505,6 +511,9 @@
       <c r="B7" t="s">
         <v>8</v>
       </c>
+      <c r="C7">
+        <v>1003</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -516,6 +525,9 @@
       <c r="B8" t="s">
         <v>9</v>
       </c>
+      <c r="C8">
+        <v>1004</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -527,6 +539,9 @@
       <c r="B9" t="s">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>2001</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -538,6 +553,9 @@
       <c r="B10" t="s">
         <v>11</v>
       </c>
+      <c r="C10">
+        <v>2002</v>
+      </c>
       <c r="D10">
         <v>1</v>
       </c>
@@ -549,6 +567,9 @@
       <c r="B11" t="s">
         <v>12</v>
       </c>
+      <c r="C11">
+        <v>2003</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -559,6 +580,9 @@
       </c>
       <c r="B12" t="s">
         <v>13</v>
+      </c>
+      <c r="C12">
+        <v>2004</v>
       </c>
       <c r="D12">
         <v>1</v>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9708E18-0C1B-4DBF-A904-6A8AC0B1F22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E67EB9-3582-47BE-917A-C4498BE35B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="2652" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5208" yWindow="2820" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,18 @@
   </si>
   <si>
     <t>Config</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Effects</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -415,10 +427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -426,10 +438,10 @@
     <col min="2" max="2" width="13.77734375" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,13 +454,16 @@
       <c r="D1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -461,8 +476,11 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -475,8 +493,11 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
@@ -490,7 +511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
@@ -504,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
@@ -518,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
@@ -532,7 +553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2001</v>
       </c>
@@ -546,7 +567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2002</v>
       </c>
@@ -560,7 +581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -574,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E67EB9-3582-47BE-917A-C4498BE35B68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43858D0F-FC01-411B-873A-4A540519EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5208" yWindow="2820" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2832" yWindow="6048" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,32 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>arthur_sk0</t>
-  </si>
-  <si>
-    <t>arthur_sk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>arthur_sk2</t>
-  </si>
-  <si>
-    <t>arthur_sk3</t>
-  </si>
-  <si>
-    <t>houyi_sk0</t>
-  </si>
-  <si>
-    <t>houyi_sk1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>houyi_sk2</t>
-  </si>
-  <si>
-    <t>houyi_sk3</t>
-  </si>
-  <si>
     <t>技能配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,6 +77,64 @@
   <si>
     <t>int[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死神技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食尸鬼普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食尸鬼技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌普通攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仙人掌技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI_Skill_Icon_Claw</t>
+  </si>
+  <si>
+    <t>UI_Skill_Icon_Buff</t>
+  </si>
+  <si>
+    <t>UI_Skill_Icon_SpiritArrows</t>
+  </si>
+  <si>
+    <t>UI_Skill_Icon_Heal</t>
+  </si>
+  <si>
+    <t>UI_Skill_Icon_Slide</t>
   </si>
 </sst>
 </file>
@@ -427,186 +459,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="2" max="3" width="18.77734375" customWidth="1"/>
     <col min="4" max="4" width="28.44140625" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>10001</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5">
+        <v>10001</v>
+      </c>
+      <c r="E5">
+        <v>10000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>10002</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6">
+        <v>10002</v>
+      </c>
+      <c r="E6">
+        <v>30000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>20001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7">
+        <v>20001</v>
+      </c>
+      <c r="E7">
+        <v>10000</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>20002</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>20002</v>
+      </c>
+      <c r="E8">
+        <v>30000</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>30001</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5">
-        <v>1001</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>1002</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6">
-        <v>1002</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>1003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>1003</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1004</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>1004</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2001</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>2001</v>
-      </c>
       <c r="D9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30001</v>
+      </c>
+      <c r="E9">
+        <v>10000</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2002</v>
+        <v>30002</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>2002</v>
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
       </c>
       <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>30002</v>
+      </c>
+      <c r="E10">
+        <v>30000</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2003</v>
+        <v>40001</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2003</v>
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>40001</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2004</v>
+        <v>40002</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12">
+        <v>40002</v>
+      </c>
+      <c r="E12">
+        <v>10000</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
-      </c>
-      <c r="C12">
-        <v>2004</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43858D0F-FC01-411B-873A-4A540519EAEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011AB5E-B7F5-4BD9-BCED-DFF7ABA9B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2832" yWindow="6048" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cs" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,10 @@
   </si>
   <si>
     <t>UI_Skill_Icon_Slide</t>
+  </si>
+  <si>
+    <t>[410001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -462,7 +466,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -660,7 +664,7 @@
         <v>10000</v>
       </c>
       <c r="F11" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">

--- a/Excel/Skill.xlsx
+++ b/Excel/Skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neon\Desktop\Moba\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5011AB5E-B7F5-4BD9-BCED-DFF7ABA9B42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45042A91-92A4-4DC0-BD9E-22777F41FD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>[410001]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[410002]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -466,7 +470,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -684,7 +688,7 @@
         <v>10000</v>
       </c>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
